--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11279,11 +11279,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13134,16 +13134,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13182,16 +13182,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -6356,7 +6356,7 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>Caducado</t>
         </is>
       </c>
       <c r="I125" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11279,11 +11279,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13134,16 +13134,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13182,16 +13182,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -8920,7 +8920,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -8935,11 +8935,11 @@
       </c>
       <c r="E179" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F179" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G179" t="inlineStr">
         <is>
@@ -8948,12 +8948,12 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -8968,7 +8968,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -8983,11 +8983,11 @@
       </c>
       <c r="E180" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F180" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G180" t="inlineStr">
         <is>
@@ -8996,12 +8996,12 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -10648,7 +10648,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -10658,16 +10658,16 @@
       </c>
       <c r="D215" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E215" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F215" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G215" t="inlineStr">
         <is>
@@ -10681,7 +10681,7 @@
       </c>
       <c r="I215" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J215" t="inlineStr">
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C227" t="inlineStr"/>
@@ -11235,11 +11235,11 @@
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11253,7 +11253,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11268,7 +11268,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11279,11 +11279,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11297,7 +11297,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -13124,7 +13124,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -13134,16 +13134,16 @@
       </c>
       <c r="D267" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E267" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F267" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G267" t="inlineStr">
         <is>
@@ -13157,7 +13157,7 @@
       </c>
       <c r="I267" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J267" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13182,16 +13182,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -596,7 +596,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -4527,7 +4527,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11283,11 +11283,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11327,11 +11327,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13182,16 +13182,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10696,7 +10696,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -10706,16 +10706,16 @@
       </c>
       <c r="D216" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E216" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F216" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G216" t="inlineStr">
         <is>
@@ -10729,7 +10729,7 @@
       </c>
       <c r="I216" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J216" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C228" t="inlineStr"/>
@@ -11283,11 +11283,11 @@
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11301,7 +11301,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11316,7 +11316,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11327,11 +11327,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11345,7 +11345,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -13172,7 +13172,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -13182,16 +13182,16 @@
       </c>
       <c r="D268" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E268" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F268" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G268" t="inlineStr">
         <is>
@@ -13205,7 +13205,7 @@
       </c>
       <c r="I268" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J268" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -424,7 +424,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Extracción de Material Integral desde Pozo Lastrero Parcela 27, Comuna de La Serena</t>
+          <t>Continuidad Operacional Distrito Pleito Fase 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -434,30 +434,30 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ARIDOS ACONCAGUA S.A.</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>200</v>
+        <v>55000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/04/2022</t>
+          <t>29/04/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155464786&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644514&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,7 +472,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Continuidad Operacional Distrito Pleito Fase 3</t>
+          <t>Extracción de Material Integral desde Pozo Lastrero Parcela 27, Comuna de La Serena</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -482,30 +482,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>ARIDOS ACONCAGUA S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>55000</v>
+        <v>200</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>22/04/2022</t>
+          <t>28/04/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155644514&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2155464786&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11331,11 +11331,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11375,11 +11375,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11331,11 +11331,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11375,11 +11375,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -18987,7 +18987,7 @@
       </c>
       <c r="E389" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F389" t="n">
@@ -20235,7 +20235,7 @@
       </c>
       <c r="E415" t="inlineStr">
         <is>
-          <t>Compañía General de Electricidad S.A.</t>
+          <t>CGE TRANSMISION S.A.</t>
         </is>
       </c>
       <c r="F415" t="n">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11331,11 +11331,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11375,11 +11375,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9016,7 +9016,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -9031,11 +9031,11 @@
       </c>
       <c r="E181" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F181" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G181" t="inlineStr">
         <is>
@@ -9044,12 +9044,12 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -10744,7 +10744,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -10754,16 +10754,16 @@
       </c>
       <c r="D217" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F217" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G217" t="inlineStr">
         <is>
@@ -10777,7 +10777,7 @@
       </c>
       <c r="I217" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J217" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C229" t="inlineStr"/>
@@ -11331,11 +11331,11 @@
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11349,7 +11349,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11364,7 +11364,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11375,11 +11375,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11393,7 +11393,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -13230,16 +13230,16 @@
       </c>
       <c r="D269" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E269" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F269" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G269" t="inlineStr">
         <is>
@@ -13253,7 +13253,7 @@
       </c>
       <c r="I269" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J269" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -8695,7 +8695,7 @@
       </c>
       <c r="E174" t="inlineStr">
         <is>
-          <t>CHILE EXPLORATION AND MINING S.A.</t>
+          <t>COMPAÑÍA MINERA LLANOS DE EL TOFO</t>
         </is>
       </c>
       <c r="F174" t="n">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11/07/2022</t>
+          <t>15/07/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9064,7 +9064,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -9079,11 +9079,11 @@
       </c>
       <c r="E182" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F182" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G182" t="inlineStr">
         <is>
@@ -9092,12 +9092,12 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -10792,7 +10792,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -10802,16 +10802,16 @@
       </c>
       <c r="D218" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E218" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F218" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G218" t="inlineStr">
         <is>
@@ -10825,7 +10825,7 @@
       </c>
       <c r="I218" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J218" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C230" t="inlineStr"/>
@@ -11379,11 +11379,11 @@
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11412,7 +11412,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11423,11 +11423,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11441,7 +11441,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -13268,7 +13268,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -13278,16 +13278,16 @@
       </c>
       <c r="D270" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E270" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F270" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G270" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
       </c>
       <c r="I270" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J270" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11471,11 +11471,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -4719,7 +4719,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11471,11 +11471,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9112,7 +9112,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -9127,11 +9127,11 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F183" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G183" t="inlineStr">
         <is>
@@ -9140,12 +9140,12 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -10840,7 +10840,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -10850,16 +10850,16 @@
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F219" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G219" t="inlineStr">
         <is>
@@ -10873,7 +10873,7 @@
       </c>
       <c r="I219" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J219" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C231" t="inlineStr"/>
@@ -11427,11 +11427,11 @@
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11460,7 +11460,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11471,11 +11471,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11489,7 +11489,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -13316,7 +13316,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -13326,16 +13326,16 @@
       </c>
       <c r="D271" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E271" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F271" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G271" t="inlineStr">
         <is>
@@ -13349,7 +13349,7 @@
       </c>
       <c r="I271" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J271" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11519,11 +11519,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11519,11 +11519,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>05/08/2022</t>
+          <t>11/08/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -692,7 +692,7 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11519,11 +11519,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9160,7 +9160,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -9175,11 +9175,11 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F184" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G184" t="inlineStr">
         <is>
@@ -9188,12 +9188,12 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -10888,7 +10888,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -10898,16 +10898,16 @@
       </c>
       <c r="D220" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F220" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G220" t="inlineStr">
         <is>
@@ -10921,7 +10921,7 @@
       </c>
       <c r="I220" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J220" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -11464,7 +11464,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C232" t="inlineStr"/>
@@ -11475,11 +11475,11 @@
       </c>
       <c r="E232" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F232" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G232" t="inlineStr">
         <is>
@@ -11493,7 +11493,7 @@
       </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
@@ -11508,7 +11508,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11519,11 +11519,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -13364,7 +13364,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -13374,16 +13374,16 @@
       </c>
       <c r="D272" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E272" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F272" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G272" t="inlineStr">
         <is>
@@ -13397,7 +13397,7 @@
       </c>
       <c r="I272" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J272" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13470,16 +13470,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13470,16 +13470,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>No calificado</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>31/08/2022</t>
+          <t>18/10/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/10/2022</t>
+          <t>22/09/2022</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13470,16 +13470,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -1172,7 +1172,7 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13470,16 +13470,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9208,7 +9208,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -9223,11 +9223,11 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F185" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G185" t="inlineStr">
         <is>
@@ -9236,12 +9236,12 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -9256,7 +9256,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -9271,11 +9271,11 @@
       </c>
       <c r="E186" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F186" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G186" t="inlineStr">
         <is>
@@ -9284,12 +9284,12 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -10936,7 +10936,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -10946,16 +10946,16 @@
       </c>
       <c r="D221" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E221" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F221" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G221" t="inlineStr">
         <is>
@@ -10969,7 +10969,7 @@
       </c>
       <c r="I221" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
@@ -10984,7 +10984,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -10994,16 +10994,16 @@
       </c>
       <c r="D222" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E222" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F222" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G222" t="inlineStr">
         <is>
@@ -11017,7 +11017,7 @@
       </c>
       <c r="I222" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
@@ -11512,7 +11512,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C233" t="inlineStr"/>
@@ -11523,11 +11523,11 @@
       </c>
       <c r="E233" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F233" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G233" t="inlineStr">
         <is>
@@ -11541,7 +11541,7 @@
       </c>
       <c r="I233" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J233" t="inlineStr">
@@ -11556,7 +11556,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C234" t="inlineStr"/>
@@ -11567,11 +11567,11 @@
       </c>
       <c r="E234" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F234" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G234" t="inlineStr">
         <is>
@@ -11585,7 +11585,7 @@
       </c>
       <c r="I234" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J234" t="inlineStr">
@@ -13412,7 +13412,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -13422,16 +13422,16 @@
       </c>
       <c r="D273" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E273" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F273" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G273" t="inlineStr">
         <is>
@@ -13445,7 +13445,7 @@
       </c>
       <c r="I273" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
@@ -13460,7 +13460,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -13470,16 +13470,16 @@
       </c>
       <c r="D274" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E274" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F274" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G274" t="inlineStr">
         <is>
@@ -13493,7 +13493,7 @@
       </c>
       <c r="I274" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J274" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13518,16 +13518,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13566,16 +13566,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13518,16 +13518,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13566,16 +13566,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13518,16 +13518,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13566,16 +13566,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -17979,7 +17979,7 @@
       </c>
       <c r="E368" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A.</t>
+          <t>TRANSELEC S.A...</t>
         </is>
       </c>
       <c r="F368" t="n">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>161261</v>
+        <v>32000</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>32000</v>
+        <v>161261</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>27/12/2022</t>
+          <t>28/12/2022</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Ingresados Art.94 RSEIA</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -424,40 +424,40 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
+          <t>Parque Fotovoltaico Alto Solar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>EIA</t>
+          <t>DIA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Compañía Minera del Pacífico S.A.</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
-        <v>32000</v>
+        <v>161261</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>04/01/2023</t>
+          <t>17/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -472,40 +472,40 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parque Fotovoltaico Alto Solar</t>
+          <t>CONTINUIDAD OPERACIONAL DISTRITO PLEITO FASE 3</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>DIA</t>
+          <t>EIA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Alto Solar SPA</t>
+          <t>Compañía Minera del Pacífico S.A.</t>
         </is>
       </c>
       <c r="F3" t="n">
-        <v>161261</v>
+        <v>32000</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>28/12/2022</t>
+          <t>04/01/2023</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2158033795&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=2157277088&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/02/2023</t>
+          <t>20/01/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -884,7 +884,7 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -856,7 +856,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Transporte terrestre de ácido sulfúrico y PLS entre la región de Arica y Parinacota y Valparaíso</t>
+          <t>Transporte terrestre de ácido sulfúrico entre la región de Arica y Parinacota y Atacama</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -11032,7 +11032,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -11042,16 +11042,16 @@
       </c>
       <c r="D223" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E223" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F223" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G223" t="inlineStr">
         <is>
@@ -11065,7 +11065,7 @@
       </c>
       <c r="I223" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J223" t="inlineStr">
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11608,7 +11608,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C235" t="inlineStr"/>
@@ -11619,11 +11619,11 @@
       </c>
       <c r="E235" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F235" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G235" t="inlineStr">
         <is>
@@ -11637,7 +11637,7 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
@@ -11652,7 +11652,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11663,11 +11663,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11681,7 +11681,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -13508,7 +13508,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -13518,16 +13518,16 @@
       </c>
       <c r="D275" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E275" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F275" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G275" t="inlineStr">
         <is>
@@ -13541,7 +13541,7 @@
       </c>
       <c r="I275" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13566,16 +13566,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11080,7 +11080,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -11090,16 +11090,16 @@
       </c>
       <c r="D224" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F224" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G224" t="inlineStr">
         <is>
@@ -11113,7 +11113,7 @@
       </c>
       <c r="I224" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J224" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11656,7 +11656,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
@@ -11667,11 +11667,11 @@
       </c>
       <c r="E236" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F236" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G236" t="inlineStr">
         <is>
@@ -11685,7 +11685,7 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
@@ -11700,7 +11700,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11711,11 +11711,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -13556,7 +13556,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -13566,16 +13566,16 @@
       </c>
       <c r="D276" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E276" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F276" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G276" t="inlineStr">
         <is>
@@ -13589,7 +13589,7 @@
       </c>
       <c r="I276" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J276" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11759,11 +11759,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11759,11 +11759,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>17/03/2023</t>
+          <t>21/02/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -500,7 +500,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -9400,7 +9400,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -9415,11 +9415,11 @@
       </c>
       <c r="E189" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F189" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G189" t="inlineStr">
         <is>
@@ -9428,12 +9428,12 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I189" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
@@ -9448,7 +9448,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -9463,11 +9463,11 @@
       </c>
       <c r="E190" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F190" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G190" t="inlineStr">
         <is>
@@ -9476,12 +9476,12 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11759,11 +11759,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11759,11 +11759,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11128,7 +11128,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -11138,16 +11138,16 @@
       </c>
       <c r="D225" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E225" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F225" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G225" t="inlineStr">
         <is>
@@ -11161,7 +11161,7 @@
       </c>
       <c r="I225" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J225" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11704,7 +11704,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C237" t="inlineStr"/>
@@ -11715,11 +11715,11 @@
       </c>
       <c r="E237" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F237" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G237" t="inlineStr">
         <is>
@@ -11733,7 +11733,7 @@
       </c>
       <c r="I237" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J237" t="inlineStr">
@@ -11748,7 +11748,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11759,11 +11759,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11777,7 +11777,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -13604,7 +13604,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -13614,16 +13614,16 @@
       </c>
       <c r="D277" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E277" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F277" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G277" t="inlineStr">
         <is>
@@ -13637,7 +13637,7 @@
       </c>
       <c r="I277" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J277" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>16/03/2023</t>
+          <t>18/04/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Ingresados Art.94 RSEIA</t>
+          <t>En Admisión</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -439,7 +439,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ROBERTO ANDRES MONTENEGRO RAMIREZ</t>
+          <t>Alto Solar SPA</t>
         </is>
       </c>
       <c r="F2" t="n">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/04/2023</t>
+          <t>22/03/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>18/06/2014</t>
+          <t>19/06/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -452,7 +452,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Calificación</t>
+          <t>Desistido</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -11176,7 +11176,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -11186,16 +11186,16 @@
       </c>
       <c r="D226" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E226" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F226" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G226" t="inlineStr">
         <is>
@@ -11209,7 +11209,7 @@
       </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J226" t="inlineStr">
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11752,7 +11752,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C238" t="inlineStr"/>
@@ -11763,11 +11763,11 @@
       </c>
       <c r="E238" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F238" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G238" t="inlineStr">
         <is>
@@ -11781,7 +11781,7 @@
       </c>
       <c r="I238" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J238" t="inlineStr">
@@ -11796,7 +11796,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11807,11 +11807,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11825,7 +11825,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -13652,7 +13652,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -13662,16 +13662,16 @@
       </c>
       <c r="D278" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E278" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F278" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G278" t="inlineStr">
         <is>
@@ -13685,7 +13685,7 @@
       </c>
       <c r="I278" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J278" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -5055,7 +5055,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>19/06/2014</t>
+          <t>18/06/2014</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -11855,11 +11855,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13758,16 +13758,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -11224,7 +11224,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -11234,16 +11234,16 @@
       </c>
       <c r="D227" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E227" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F227" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G227" t="inlineStr">
         <is>
@@ -11257,7 +11257,7 @@
       </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J227" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11800,7 +11800,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C239" t="inlineStr"/>
@@ -11811,11 +11811,11 @@
       </c>
       <c r="E239" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F239" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G239" t="inlineStr">
         <is>
@@ -11829,7 +11829,7 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
@@ -11844,7 +11844,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -11855,11 +11855,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11873,7 +11873,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -13700,7 +13700,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -13710,16 +13710,16 @@
       </c>
       <c r="D279" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E279" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F279" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G279" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
       </c>
       <c r="I279" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J279" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13758,16 +13758,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -11859,11 +11859,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11903,11 +11903,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13758,16 +13758,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13806,16 +13806,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -18219,7 +18219,7 @@
       </c>
       <c r="E373" t="inlineStr">
         <is>
-          <t>TRANSELEC S.A...</t>
+          <t>TRANSELEC S.A</t>
         </is>
       </c>
       <c r="F373" t="n">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9544,7 +9544,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -9559,11 +9559,11 @@
       </c>
       <c r="E192" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F192" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G192" t="inlineStr">
         <is>
@@ -9572,12 +9572,12 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -11272,7 +11272,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -11282,16 +11282,16 @@
       </c>
       <c r="D228" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E228" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F228" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G228" t="inlineStr">
         <is>
@@ -11305,7 +11305,7 @@
       </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J228" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11848,7 +11848,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C240" t="inlineStr"/>
@@ -11859,11 +11859,11 @@
       </c>
       <c r="E240" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F240" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G240" t="inlineStr">
         <is>
@@ -11877,7 +11877,7 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
@@ -11892,7 +11892,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11903,11 +11903,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -13748,7 +13748,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -13758,16 +13758,16 @@
       </c>
       <c r="D280" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E280" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F280" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G280" t="inlineStr">
         <is>
@@ -13781,7 +13781,7 @@
       </c>
       <c r="I280" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13806,16 +13806,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>23/10/2023</t>
+          <t>31/10/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11907,11 +11907,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13806,16 +13806,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13854,16 +13854,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11907,11 +11907,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13806,16 +13806,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13854,16 +13854,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -447,12 +447,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>18/12/2023</t>
+          <t>21/12/2023</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>En Admisión</t>
+          <t>En Calificación</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -9592,7 +9592,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -9607,11 +9607,11 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F193" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G193" t="inlineStr">
         <is>
@@ -9620,12 +9620,12 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -11320,7 +11320,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -11330,16 +11330,16 @@
       </c>
       <c r="D229" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E229" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F229" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G229" t="inlineStr">
         <is>
@@ -11353,7 +11353,7 @@
       </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11896,7 +11896,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C241" t="inlineStr"/>
@@ -11907,11 +11907,11 @@
       </c>
       <c r="E241" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F241" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G241" t="inlineStr">
         <is>
@@ -11925,7 +11925,7 @@
       </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
@@ -11940,7 +11940,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -11951,11 +11951,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11969,7 +11969,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -13796,7 +13796,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -13806,16 +13806,16 @@
       </c>
       <c r="D281" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E281" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F281" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G281" t="inlineStr">
         <is>
@@ -13829,7 +13829,7 @@
       </c>
       <c r="I281" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J281" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13854,16 +13854,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">

--- a/data/La Serena.xlsx
+++ b/data/La Serena.xlsx
@@ -9640,7 +9640,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
+          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -9655,11 +9655,11 @@
       </c>
       <c r="E194" t="inlineStr">
         <is>
-          <t>Molina Quimicos S.A.</t>
+          <t>SULFOQUIM S.A.</t>
         </is>
       </c>
       <c r="F194" t="n">
-        <v>4800</v>
+        <v>563</v>
       </c>
       <c r="G194" t="inlineStr">
         <is>
@@ -9668,12 +9668,12 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>No Admitido a Tramitación</t>
+          <t>Aprobado</t>
         </is>
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -9688,7 +9688,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Almacenamiento y Distribución de Ahídrido Sulfuroso</t>
+          <t>TRANSPORTE DE SUSTANCIAS PELIGROSAS Y RESIDUOS PELIGROSOS ENTRE LA XV A LA VI REGIONES y XIII REGION</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -9703,11 +9703,11 @@
       </c>
       <c r="E195" t="inlineStr">
         <is>
-          <t>SULFOQUIM S.A.</t>
+          <t>Molina Quimicos S.A.</t>
         </is>
       </c>
       <c r="F195" t="n">
-        <v>563</v>
+        <v>4800</v>
       </c>
       <c r="G195" t="inlineStr">
         <is>
@@ -9716,12 +9716,12 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Aprobado</t>
+          <t>No Admitido a Tramitación</t>
         </is>
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4953363&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4920069&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -11368,7 +11368,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
+          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -11378,16 +11378,16 @@
       </c>
       <c r="D230" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E230" t="inlineStr">
         <is>
-          <t>Rojas y Donaire Cía. Ltda.</t>
+          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
         </is>
       </c>
       <c r="F230" t="n">
-        <v>2000</v>
+        <v>10000</v>
       </c>
       <c r="G230" t="inlineStr">
         <is>
@@ -11401,7 +11401,7 @@
       </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J230" t="inlineStr">
@@ -11416,7 +11416,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Estacionamientos Subterráneos en la ciudad de La Serena - Segunda Etapa (e-seia)</t>
+          <t>Transporte de Sustancias Peligrosas entre las Regiones I, II, III, IV, V, Región Metropolitana y VI (e-seia)</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -11426,16 +11426,16 @@
       </c>
       <c r="D231" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E231" t="inlineStr">
         <is>
-          <t>Ingeniería Electrónica, Computación y Medicina S.A.</t>
+          <t>Rojas y Donaire Cía. Ltda.</t>
         </is>
       </c>
       <c r="F231" t="n">
-        <v>10000</v>
+        <v>2000</v>
       </c>
       <c r="G231" t="inlineStr">
         <is>
@@ -11449,7 +11449,7 @@
       </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4196027&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=4151517&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J231" t="inlineStr">
@@ -11944,7 +11944,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Piscicultura</t>
+          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
         </is>
       </c>
       <c r="C242" t="inlineStr"/>
@@ -11955,11 +11955,11 @@
       </c>
       <c r="E242" t="inlineStr">
         <is>
-          <t>Sociedad de Inversiones Acuícolas Limitada</t>
+          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
         </is>
       </c>
       <c r="F242" t="n">
-        <v>4000</v>
+        <v>70000</v>
       </c>
       <c r="G242" t="inlineStr">
         <is>
@@ -11973,7 +11973,7 @@
       </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
@@ -11988,7 +11988,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Minimización y Cogeneración de Residuos Sólidos Mediante el Proceso de Gasificación</t>
+          <t>Piscicultura</t>
         </is>
       </c>
       <c r="C243" t="inlineStr"/>
@@ -11999,11 +11999,11 @@
       </c>
       <c r="E243" t="inlineStr">
         <is>
-          <t>Pyrotech Chile Limitada Francois Bravo Ferrer</t>
+          <t>Sociedad de Inversiones Acuícolas Limitada</t>
         </is>
       </c>
       <c r="F243" t="n">
-        <v>70000</v>
+        <v>4000</v>
       </c>
       <c r="G243" t="inlineStr">
         <is>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3974990&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3958630&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J243" t="inlineStr">
@@ -13844,7 +13844,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Ampliación Planta San Lorenzo (e-seia)</t>
+          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -13854,16 +13854,16 @@
       </c>
       <c r="D282" t="inlineStr">
         <is>
-          <t>Cuarta</t>
+          <t>Interregional</t>
         </is>
       </c>
       <c r="E282" t="inlineStr">
         <is>
-          <t>Patricio Javier Rendic Lazo</t>
+          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
         </is>
       </c>
       <c r="F282" t="n">
-        <v>2000</v>
+        <v>0</v>
       </c>
       <c r="G282" t="inlineStr">
         <is>
@@ -13877,7 +13877,7 @@
       </c>
       <c r="I282" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
@@ -13892,7 +13892,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>TRANSPORTE DE EXPLOSIVOS Y CARGAS PELIGROSAS (e-seia)</t>
+          <t>Ampliación Planta San Lorenzo (e-seia)</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -13902,16 +13902,16 @@
       </c>
       <c r="D283" t="inlineStr">
         <is>
-          <t>Interregional</t>
+          <t>Cuarta</t>
         </is>
       </c>
       <c r="E283" t="inlineStr">
         <is>
-          <t>TRANSORTE DE CARGAS POR CARRETERA</t>
+          <t>Patricio Javier Rendic Lazo</t>
         </is>
       </c>
       <c r="F283" t="n">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G283" t="inlineStr">
         <is>
@@ -13925,7 +13925,7 @@
       </c>
       <c r="I283" t="inlineStr">
         <is>
-          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3004520&amp;modo=ficha</t>
+          <t>https://seia.sea.gob.cl/expediente/expediente.php?id_expediente=3010376&amp;modo=ficha</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
